--- a/Robot Facturación Materia Prima/Config/Dia_Ejecucion.xlsx
+++ b/Robot Facturación Materia Prima/Config/Dia_Ejecucion.xlsx
@@ -35,7 +35,7 @@
     <t>dd/mm/aaaa</t>
   </si>
   <si>
-    <t>16/08/2022</t>
+    <t>19/08/2022</t>
   </si>
 </sst>
 </file>

--- a/Robot Facturación Materia Prima/Config/Dia_Ejecucion.xlsx
+++ b/Robot Facturación Materia Prima/Config/Dia_Ejecucion.xlsx
@@ -35,7 +35,7 @@
     <t>dd/mm/aaaa</t>
   </si>
   <si>
-    <t>19/08/2022</t>
+    <t>30/08/2022</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Robot Facturación Materia Prima/Config/Dia_Ejecucion.xlsx
+++ b/Robot Facturación Materia Prima/Config/Dia_Ejecucion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Dia_Ejecucion</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>dd/mm/aaaa</t>
-  </si>
-  <si>
-    <t>30/08/2022</t>
   </si>
 </sst>
 </file>
@@ -360,7 +357,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,9 +374,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>

--- a/Robot Facturación Materia Prima/Config/Dia_Ejecucion.xlsx
+++ b/Robot Facturación Materia Prima/Config/Dia_Ejecucion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Dia_Ejecucion</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>dd/mm/aaaa</t>
+  </si>
+  <si>
+    <t>25/10/2022</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>

--- a/Robot Facturación Materia Prima/Config/Dia_Ejecucion.xlsx
+++ b/Robot Facturación Materia Prima/Config/Dia_Ejecucion.xlsx
@@ -35,7 +35,7 @@
     <t>dd/mm/aaaa</t>
   </si>
   <si>
-    <t>25/10/2022</t>
+    <t>17/11/2022</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
